--- a/Test/TestData/test_data.xlsx
+++ b/Test/TestData/test_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdullah.faroque\PycharmProjects\nopCommerce-Web-UI-Automation\Test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D59D27-F68A-426F-837D-A2E31BD9E922}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32634AA4-B7EE-44F9-AC98-16211396B282}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="configuration" sheetId="1" r:id="rId1"/>
-    <sheet name="login" sheetId="2" r:id="rId2"/>
+    <sheet name="login_reg" sheetId="2" r:id="rId2"/>
     <sheet name="urls" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
   <si>
     <t>frontend_url</t>
   </si>
@@ -75,9 +75,6 @@
     <t>smoke</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>nopcommerce</t>
   </si>
   <si>
@@ -85,13 +82,67 @@
   </si>
   <si>
     <t>aalfaroque@gmail.com</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>dynamicemail</t>
+  </si>
+  <si>
+    <t>companyName</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>msg</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>unchecked</t>
+  </si>
+  <si>
+    <t>pass@1234</t>
+  </si>
+  <si>
+    <t>Your registration completed</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +173,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
     </font>
   </fonts>
   <fills count="4">
@@ -172,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -194,6 +250,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -477,11 +540,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.1796875" customWidth="1"/>
@@ -490,7 +553,7 @@
     <col min="7" max="7" width="24.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -513,12 +576,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="30" customHeight="1">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>VLOOKUP(A2,urls!A1:B3,2,FALSE)</f>
@@ -528,13 +591,13 @@
         <v>13</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -571,21 +634,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="18.1796875" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="5" max="5" width="11.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="30" customHeight="1"/>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -593,30 +660,151 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8">
+      <c r="A8" s="11" t="s">
+        <v>6</v>
+      </c>
       <c r="B8" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="11"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="10">
+        <v>34839</v>
+      </c>
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="11"/>
+      <c r="C10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="10">
+        <v>36289</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="11"/>
+      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="10">
+        <v>36649</v>
+      </c>
+      <c r="F11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="11"/>
+      <c r="C12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="10">
+        <v>37013</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="11"/>
+      <c r="C13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="10">
+        <v>33003</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -624,24 +812,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A6CC52-174A-4396-96A9-E182E804654A}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="2" max="2" width="46.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -649,7 +837,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>12</v>
       </c>

--- a/Test/TestData/test_data.xlsx
+++ b/Test/TestData/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdullah.faroque\PycharmProjects\nopCommerce-Web-UI-Automation\Test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32634AA4-B7EE-44F9-AC98-16211396B282}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E558D7-2109-4F4C-82F1-35D44EEB192C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,7 +135,7 @@
     <t>Your registration completed</t>
   </si>
   <si>
-    <t>yes</t>
+    <t>no</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/Test/TestData/test_data.xlsx
+++ b/Test/TestData/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdullah.faroque\PycharmProjects\nopCommerce-Web-UI-Automation\Test\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E558D7-2109-4F4C-82F1-35D44EEB192C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B211C5-92D8-46DE-85A0-E8DECECAE9AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,18 +63,12 @@
     <t>prod</t>
   </si>
   <si>
-    <t>Chrome</t>
-  </si>
-  <si>
     <t>https://example.com</t>
   </si>
   <si>
     <t>test_type</t>
   </si>
   <si>
-    <t>smoke</t>
-  </si>
-  <si>
     <t>nopcommerce</t>
   </si>
   <si>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>regression</t>
+  </si>
+  <si>
+    <t>Edge</t>
   </si>
 </sst>
 </file>
@@ -541,7 +541,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>7</v>
@@ -581,23 +581,23 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="str">
         <f>VLOOKUP(A2,urls!A1:B3,2,FALSE)</f>
         <v>https://demo.nopcommerce.com/</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -672,131 +672,131 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11"/>
       <c r="B9" s="1"/>
       <c r="C9" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E9" s="10">
         <v>34839</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11"/>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10">
         <v>36289</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11"/>
       <c r="C11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E11" s="10">
         <v>36649</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G11" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="11"/>
       <c r="C12" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E12" s="10">
         <v>37013</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="11"/>
       <c r="C13" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E13" s="10">
         <v>33003</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -842,7 +842,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
